--- a/2_Formulas_Functions/1_Formulas_Intro.xlsx
+++ b/2_Formulas_Functions/1_Formulas_Intro.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_and_Functions\1_Formulas_Intro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975BC81-8DCF-4415-A08A-249CF8CC280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E81FCE-B710-455F-8EFA-611B749398C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4062" yWindow="14532" windowWidth="18414" windowHeight="10452" activeTab="3" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Math Operators" sheetId="2" r:id="rId2"/>
-    <sheet name="Comparison Operators" sheetId="3" r:id="rId3"/>
-    <sheet name="Cell Referencing" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Math_Operators" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparison_Operators" sheetId="3" r:id="rId3"/>
+    <sheet name="Cell_Referencing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -205,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -414,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -435,7 +435,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -457,7 +456,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -829,18 +828,18 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -854,143 +853,143 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>120000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>135000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>75000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>110000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>125000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>90000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>150000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>130000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>140000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="8" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>115000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>9000</v>
       </c>
     </row>
@@ -1003,27 +1002,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DCE1A2-EA95-4F17-A4EA-F328F67407AE}">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="9" width="11.06640625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.06640625" style="4"/>
-    <col min="12" max="12" width="12.53125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="9" width="11" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:12" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1036,357 +1035,357 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>120000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <f>D3+E3</f>
         <v>130000</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>E3/D3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f>D3+D3*H3</f>
         <v>130000</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>135000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>12000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="0">C4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G12" si="1">D4+E4</f>
         <v>147000</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" ref="H4:H12" si="2">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
         <v>147000</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>75000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>5000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>110000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>118000</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>125000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>11000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>136000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="8" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>90000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>7000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>97000</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>150000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>15000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>165000</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>130000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>13000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>143000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>140000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>14000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>154000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="8" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>115000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>9000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>124000</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
@@ -1400,30 +1399,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196914E-217D-4E51-AB2B-09122BAF1566}">
   <dimension ref="B1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="8" width="11.06640625" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.06640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.06640625" style="4"/>
-    <col min="14" max="14" width="19.1328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="11" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:14" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1436,443 +1435,443 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>120000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <f>D3+E3</f>
         <v>130000</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>E3/D3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f>D3+D3*H3</f>
         <v>130000</v>
       </c>
-      <c r="J3" s="8" t="b">
+      <c r="J3" s="4" t="b">
         <f>G3=I3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="b">
+      <c r="K3" s="4" t="b">
         <f>E3&gt;D3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>135000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>12000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="0">C4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G12" si="1">D4+E4</f>
         <v>147000</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" ref="H4:H12" si="2">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
         <v>147000</v>
       </c>
-      <c r="J4" s="8" t="b">
+      <c r="J4" s="4" t="b">
         <f t="shared" ref="J4:J12" si="4">G4=I4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="b">
+      <c r="K4" s="4" t="b">
         <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>35</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>75000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>5000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="J5" s="8" t="b">
+      <c r="J5" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="b">
+      <c r="K5" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>110000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>118000</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
-      <c r="J6" s="8" t="b">
+      <c r="J6" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="b">
+      <c r="K6" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>125000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>11000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>136000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
-      <c r="J7" s="8" t="b">
+      <c r="J7" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="b">
+      <c r="K7" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>41</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>90000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>7000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>97000</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="J8" s="8" t="b">
+      <c r="J8" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="b">
+      <c r="K8" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>150000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>15000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>165000</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="J9" s="8" t="b">
+      <c r="J9" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K9" s="8" t="b">
+      <c r="K9" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>130000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>13000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>143000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
-      <c r="J10" s="8" t="b">
+      <c r="J10" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K10" s="8" t="b">
+      <c r="K10" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>140000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>14000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>154000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
-      <c r="J11" s="8" t="b">
+      <c r="J11" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="8" t="b">
+      <c r="K11" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" s="8" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>115000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>9000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>124000</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
-      <c r="J12" s="8" t="b">
+      <c r="J12" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="b">
+      <c r="K12" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1886,30 +1885,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43874593-2EEC-48E4-98E0-7C4B9DC6F43F}">
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="4"/>
-    <col min="8" max="9" width="11.06640625" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="4"/>
-    <col min="14" max="14" width="10.3984375" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="9" width="11" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="10.42578125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:15" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1922,595 +1921,595 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>120000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>10000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <f>C3</f>
         <v>5</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <f>D3+E3</f>
         <v>130000</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>E3/D3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <f>D3+D3*H3</f>
         <v>130000</v>
       </c>
-      <c r="J3" s="8" t="b">
+      <c r="J3" s="4" t="b">
         <f>G3=I3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="b">
+      <c r="K3" s="4" t="b">
         <f>E3&gt;D3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="b">
+      <c r="L3" s="4" t="b">
         <f>$C$15&lt;=C3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="8" t="b">
+      <c r="M3" s="4" t="b">
         <f>$G3&gt;=$C$16</f>
         <v>1</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="4">
         <f>L3*M3</f>
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="b">
+      <c r="O3" s="4" t="b">
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
         <v>4</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>135000</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>12000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F12" si="0">C4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G12" si="1">D4+E4</f>
         <v>147000</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" ref="H4:H12" si="2">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
         <v>147000</v>
       </c>
-      <c r="J4" s="8" t="b">
+      <c r="J4" s="4" t="b">
         <f t="shared" ref="J4:J12" si="4">G4=I4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="b">
+      <c r="K4" s="4" t="b">
         <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="8" t="b">
+      <c r="L4" s="4" t="b">
         <f t="shared" ref="L4:L12" si="6">$C$15&lt;=C4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="8" t="b">
+      <c r="M4" s="4" t="b">
         <f t="shared" ref="M4:M12" si="7">$G4&gt;=$C$16</f>
         <v>1</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="4">
         <f t="shared" ref="N4:N12" si="8">L4*M4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="8" t="b">
+      <c r="O4" s="4" t="b">
         <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>75000</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>5000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f t="shared" si="2"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
-      <c r="J5" s="8" t="b">
+      <c r="J5" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K5" s="8" t="b">
+      <c r="K5" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="b">
+      <c r="L5" s="4" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M5" s="8" t="b">
+      <c r="M5" s="4" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O5" s="8" t="b">
+      <c r="O5" s="4" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>110000</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>8000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>118000</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
-      <c r="J6" s="8" t="b">
+      <c r="J6" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="b">
+      <c r="K6" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="b">
+      <c r="L6" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M6" s="8" t="b">
+      <c r="M6" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O6" s="8" t="b">
+      <c r="O6" s="4" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>125000</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>11000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>136000</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <f t="shared" si="2"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
-      <c r="J7" s="8" t="b">
+      <c r="J7" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="b">
+      <c r="K7" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="8" t="b">
+      <c r="L7" s="4" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M7" s="8" t="b">
+      <c r="M7" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O7" s="8" t="b">
+      <c r="O7" s="4" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>90000</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>7000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>97000</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
-      <c r="J8" s="8" t="b">
+      <c r="J8" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="b">
+      <c r="K8" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="8" t="b">
+      <c r="L8" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M8" s="8" t="b">
+      <c r="M8" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O8" s="8" t="b">
+      <c r="O8" s="4" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>150000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>15000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>165000</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="J9" s="8" t="b">
+      <c r="J9" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K9" s="8" t="b">
+      <c r="K9" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="b">
+      <c r="L9" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M9" s="8" t="b">
+      <c r="M9" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O9" s="8" t="b">
+      <c r="O9" s="4" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>130000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>13000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>143000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
-      <c r="J10" s="8" t="b">
+      <c r="J10" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K10" s="8" t="b">
+      <c r="K10" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L10" s="8" t="b">
+      <c r="L10" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M10" s="8" t="b">
+      <c r="M10" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O10" s="8" t="b">
+      <c r="O10" s="4" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>140000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>14000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>154000</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
-      <c r="J11" s="8" t="b">
+      <c r="J11" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K11" s="8" t="b">
+      <c r="K11" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="8" t="b">
+      <c r="L11" s="4" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M11" s="8" t="b">
+      <c r="M11" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O11" s="8" t="b">
+      <c r="O11" s="4" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="8" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>115000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>9000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <f t="shared" si="1"/>
         <v>124000</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f t="shared" si="2"/>
         <v>7.8260869565217397E-2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
-      <c r="J12" s="8" t="b">
+      <c r="J12" s="4" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="b">
+      <c r="K12" s="4" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="8" t="b">
+      <c r="L12" s="4" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M12" s="8" t="b">
+      <c r="M12" s="4" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="4">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O12" s="8" t="b">
+      <c r="O12" s="4" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="30" t="s">
+    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="28" t="s">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>90000</v>
       </c>
     </row>

--- a/2_Formulas_Functions/1_Formulas_Intro.xlsx
+++ b/2_Formulas_Functions/1_Formulas_Intro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E81FCE-B710-455F-8EFA-611B749398C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FD1D54-5E70-445F-B720-413AD7C92D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-44460" yWindow="-18890" windowWidth="32220" windowHeight="13370" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -822,24 +822,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A41B6C-80F1-4D7E-AD46-00EDEBFEC87C}">
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="5.15625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.9453125" style="4" customWidth="1"/>
+    <col min="7" max="13" width="9" style="4"/>
+    <col min="14" max="14" width="11.26171875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -852,8 +855,38 @@
       <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -867,7 +900,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -881,7 +914,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -895,7 +928,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -909,7 +942,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -923,7 +956,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -937,7 +970,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -951,7 +984,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -965,7 +998,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1012,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -992,6 +1025,23 @@
       <c r="E12" s="13">
         <v>9000</v>
       </c>
+    </row>
+    <row r="14" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,27 +1052,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DCE1A2-EA95-4F17-A4EA-F328F67407AE}">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.15625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="9" width="11" style="4" customWidth="1"/>
     <col min="10" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.578125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:12" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1198,7 +1248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1284,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1350,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1380,7 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1410,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1399,30 +1449,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196914E-217D-4E51-AB2B-09122BAF1566}">
   <dimension ref="B1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.15625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="11" style="4" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="4" customWidth="1"/>
     <col min="12" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.15625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:14" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1548,7 +1598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1592,7 +1642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1680,7 +1730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1800,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1838,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1885,30 +1935,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43874593-2EEC-48E4-98E0-7C4B9DC6F43F}">
   <dimension ref="B1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.15625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="4" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="9" width="11" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4"/>
-    <col min="14" max="14" width="10.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="4" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:15" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1952,7 +2002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2060,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
@@ -2168,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2438,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
@@ -2492,12 +2542,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
@@ -2505,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="27" t="s">
         <v>49</v>
       </c>
